--- a/data/5259.xlsx
+++ b/data/5259.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42983,6 +42983,41 @@
         <v>193200</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>5259</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>EATECH</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>269000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5259.xlsx
+++ b/data/5259.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43018,6 +43018,41 @@
         <v>269000</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>5259</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>EATECH</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>532000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5259.xlsx
+++ b/data/5259.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43053,6 +43053,41 @@
         <v>532000</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>5259</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>EATECH</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>721900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5259.xlsx
+++ b/data/5259.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43088,6 +43088,41 @@
         <v>721900</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>5259</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>EATECH</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>8397700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5259.xlsx
+++ b/data/5259.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43123,6 +43123,41 @@
         <v>8397700</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>5259</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>EATECH</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>4924400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5259.xlsx
+++ b/data/5259.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43158,6 +43158,41 @@
         <v>4924400</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>5259</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>EATECH</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>3447200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5259.xlsx
+++ b/data/5259.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43193,6 +43193,41 @@
         <v>3447200</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>5259</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>EATECH</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>3087200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5259.xlsx
+++ b/data/5259.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43228,6 +43228,41 @@
         <v>3087200</v>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>5259</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>EATECH</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>1160700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5259.xlsx
+++ b/data/5259.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43263,6 +43263,41 @@
         <v>1160700</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>5259</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>EATECH</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>2036200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5259.xlsx
+++ b/data/5259.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43298,6 +43298,41 @@
         <v>2036200</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>5259</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>EATECH</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>1733900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5259.xlsx
+++ b/data/5259.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43333,6 +43333,41 @@
         <v>1733900</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>5259</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>EATECH</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>785400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5259.xlsx
+++ b/data/5259.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43368,6 +43368,41 @@
         <v>785400</v>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>5259</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>EATECH</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>812300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5259.xlsx
+++ b/data/5259.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43403,6 +43403,76 @@
         <v>812300</v>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>5259</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>EATECH</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>805300</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>5259</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>EATECH</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>2505700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5259.xlsx
+++ b/data/5259.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43473,6 +43473,76 @@
         <v>2505700</v>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>5259</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>EATECH</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>759300</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>5259</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>EATECH</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>320400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5259.xlsx
+++ b/data/5259.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43543,6 +43543,41 @@
         <v>320400</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>5259</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>EATECH</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>188100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5259.xlsx
+++ b/data/5259.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43578,6 +43578,41 @@
         <v>188100</v>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>5259</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>EATECH</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>266800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5259.xlsx
+++ b/data/5259.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43613,6 +43613,41 @@
         <v>266800</v>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>5259</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>EATECH</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>97000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5259.xlsx
+++ b/data/5259.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1236"/>
+  <dimension ref="A1:I1237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43648,6 +43648,41 @@
         <v>97000</v>
       </c>
     </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>5259</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>EATECH</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>4127100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5259.xlsx
+++ b/data/5259.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1237"/>
+  <dimension ref="A1:I1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43683,6 +43683,76 @@
         <v>4127100</v>
       </c>
     </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>5259</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>EATECH</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>663100</v>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>5259</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>EATECH</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>1405100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5259.xlsx
+++ b/data/5259.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1239"/>
+  <dimension ref="A1:I1240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43753,6 +43753,41 @@
         <v>1405100</v>
       </c>
     </row>
+    <row r="1240">
+      <c r="A1240" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>5259</t>
+        </is>
+      </c>
+      <c r="D1240" t="inlineStr">
+        <is>
+          <t>EATECH</t>
+        </is>
+      </c>
+      <c r="E1240" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>1218400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5259.xlsx
+++ b/data/5259.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1240"/>
+  <dimension ref="A1:I1241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43788,6 +43788,41 @@
         <v>1218400</v>
       </c>
     </row>
+    <row r="1241">
+      <c r="A1241" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1241" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1241" t="inlineStr">
+        <is>
+          <t>5259</t>
+        </is>
+      </c>
+      <c r="D1241" t="inlineStr">
+        <is>
+          <t>EATECH</t>
+        </is>
+      </c>
+      <c r="E1241" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F1241" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="G1241" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="H1241" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="I1241" t="n">
+        <v>1616300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5259.xlsx
+++ b/data/5259.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1288"/>
+  <dimension ref="A1:I1289"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45468,6 +45468,41 @@
         <v>1616300</v>
       </c>
     </row>
+    <row r="1289">
+      <c r="A1289" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B1289" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C1289" t="inlineStr">
+        <is>
+          <t>5259</t>
+        </is>
+      </c>
+      <c r="D1289" t="inlineStr">
+        <is>
+          <t>EATECH</t>
+        </is>
+      </c>
+      <c r="E1289" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="F1289" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="G1289" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="H1289" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="I1289" t="n">
+        <v>1164900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5259.xlsx
+++ b/data/5259.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1289"/>
+  <dimension ref="A1:I1290"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45503,6 +45503,41 @@
         <v>1164900</v>
       </c>
     </row>
+    <row r="1290">
+      <c r="A1290" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B1290" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C1290" t="inlineStr">
+        <is>
+          <t>5259</t>
+        </is>
+      </c>
+      <c r="D1290" t="inlineStr">
+        <is>
+          <t>EATECH</t>
+        </is>
+      </c>
+      <c r="E1290" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="F1290" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="G1290" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="H1290" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="I1290" t="n">
+        <v>128000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5259.xlsx
+++ b/data/5259.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1290"/>
+  <dimension ref="A1:I1291"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45538,6 +45538,41 @@
         <v>128000</v>
       </c>
     </row>
+    <row r="1291">
+      <c r="A1291" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B1291" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C1291" t="inlineStr">
+        <is>
+          <t>5259</t>
+        </is>
+      </c>
+      <c r="D1291" t="inlineStr">
+        <is>
+          <t>EATECH</t>
+        </is>
+      </c>
+      <c r="E1291" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="F1291" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="G1291" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="H1291" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="I1291" t="n">
+        <v>717400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5259.xlsx
+++ b/data/5259.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1291"/>
+  <dimension ref="A1:I1292"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45573,6 +45573,41 @@
         <v>717400</v>
       </c>
     </row>
+    <row r="1292">
+      <c r="A1292" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B1292" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C1292" t="inlineStr">
+        <is>
+          <t>5259</t>
+        </is>
+      </c>
+      <c r="D1292" t="inlineStr">
+        <is>
+          <t>EATECH</t>
+        </is>
+      </c>
+      <c r="E1292" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="F1292" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="G1292" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H1292" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="I1292" t="n">
+        <v>1632300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5259.xlsx
+++ b/data/5259.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1292"/>
+  <dimension ref="A1:I1293"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45608,6 +45608,41 @@
         <v>1632300</v>
       </c>
     </row>
+    <row r="1293">
+      <c r="A1293" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B1293" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C1293" t="inlineStr">
+        <is>
+          <t>5259</t>
+        </is>
+      </c>
+      <c r="D1293" t="inlineStr">
+        <is>
+          <t>EATECH</t>
+        </is>
+      </c>
+      <c r="E1293" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="F1293" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G1293" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="H1293" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I1293" t="n">
+        <v>678400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5259.xlsx
+++ b/data/5259.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1293"/>
+  <dimension ref="A1:I1294"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45643,6 +45643,41 @@
         <v>678400</v>
       </c>
     </row>
+    <row r="1294">
+      <c r="A1294" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B1294" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C1294" t="inlineStr">
+        <is>
+          <t>5259</t>
+        </is>
+      </c>
+      <c r="D1294" t="inlineStr">
+        <is>
+          <t>EATECH</t>
+        </is>
+      </c>
+      <c r="E1294" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="F1294" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="G1294" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="H1294" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="I1294" t="n">
+        <v>844500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5259.xlsx
+++ b/data/5259.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1294"/>
+  <dimension ref="A1:I1295"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45678,6 +45678,41 @@
         <v>844500</v>
       </c>
     </row>
+    <row r="1295">
+      <c r="A1295" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B1295" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C1295" t="inlineStr">
+        <is>
+          <t>5259</t>
+        </is>
+      </c>
+      <c r="D1295" t="inlineStr">
+        <is>
+          <t>EATECH</t>
+        </is>
+      </c>
+      <c r="E1295" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="F1295" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G1295" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="H1295" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I1295" t="n">
+        <v>506000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5259.xlsx
+++ b/data/5259.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1295"/>
+  <dimension ref="A1:I1296"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45713,6 +45713,41 @@
         <v>506000</v>
       </c>
     </row>
+    <row r="1296">
+      <c r="A1296" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B1296" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C1296" t="inlineStr">
+        <is>
+          <t>5259</t>
+        </is>
+      </c>
+      <c r="D1296" t="inlineStr">
+        <is>
+          <t>EATECH</t>
+        </is>
+      </c>
+      <c r="E1296" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="F1296" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="G1296" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="H1296" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I1296" t="n">
+        <v>681800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5259.xlsx
+++ b/data/5259.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1296"/>
+  <dimension ref="A1:I1297"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45748,6 +45748,41 @@
         <v>681800</v>
       </c>
     </row>
+    <row r="1297">
+      <c r="A1297" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B1297" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C1297" t="inlineStr">
+        <is>
+          <t>5259</t>
+        </is>
+      </c>
+      <c r="D1297" t="inlineStr">
+        <is>
+          <t>EATECH</t>
+        </is>
+      </c>
+      <c r="E1297" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="F1297" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G1297" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="H1297" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I1297" t="n">
+        <v>439700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5259.xlsx
+++ b/data/5259.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1297"/>
+  <dimension ref="A1:I1298"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45783,6 +45783,41 @@
         <v>439700</v>
       </c>
     </row>
+    <row r="1298">
+      <c r="A1298" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B1298" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C1298" t="inlineStr">
+        <is>
+          <t>5259</t>
+        </is>
+      </c>
+      <c r="D1298" t="inlineStr">
+        <is>
+          <t>EATECH</t>
+        </is>
+      </c>
+      <c r="E1298" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="F1298" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="G1298" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H1298" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I1298" t="n">
+        <v>380000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5259.xlsx
+++ b/data/5259.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1298"/>
+  <dimension ref="A1:I1299"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45818,6 +45818,41 @@
         <v>380000</v>
       </c>
     </row>
+    <row r="1299">
+      <c r="A1299" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B1299" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C1299" t="inlineStr">
+        <is>
+          <t>5259</t>
+        </is>
+      </c>
+      <c r="D1299" t="inlineStr">
+        <is>
+          <t>EATECH</t>
+        </is>
+      </c>
+      <c r="E1299" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="F1299" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G1299" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="H1299" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I1299" t="n">
+        <v>230000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5259.xlsx
+++ b/data/5259.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1299"/>
+  <dimension ref="A1:I1300"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45853,6 +45853,41 @@
         <v>230000</v>
       </c>
     </row>
+    <row r="1300">
+      <c r="A1300" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B1300" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C1300" t="inlineStr">
+        <is>
+          <t>5259</t>
+        </is>
+      </c>
+      <c r="D1300" t="inlineStr">
+        <is>
+          <t>EATECH</t>
+        </is>
+      </c>
+      <c r="E1300" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="F1300" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="G1300" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="H1300" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="I1300" t="n">
+        <v>700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5259.xlsx
+++ b/data/5259.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1300"/>
+  <dimension ref="A1:I1301"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45888,6 +45888,41 @@
         <v>700</v>
       </c>
     </row>
+    <row r="1301">
+      <c r="A1301" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B1301" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C1301" t="inlineStr">
+        <is>
+          <t>5259</t>
+        </is>
+      </c>
+      <c r="D1301" t="inlineStr">
+        <is>
+          <t>EATECH</t>
+        </is>
+      </c>
+      <c r="E1301" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="F1301" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="G1301" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="H1301" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I1301" t="n">
+        <v>437500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5259.xlsx
+++ b/data/5259.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1301"/>
+  <dimension ref="A1:I1302"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45923,6 +45923,41 @@
         <v>437500</v>
       </c>
     </row>
+    <row r="1302">
+      <c r="A1302" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B1302" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C1302" t="inlineStr">
+        <is>
+          <t>5259</t>
+        </is>
+      </c>
+      <c r="D1302" t="inlineStr">
+        <is>
+          <t>EATECH</t>
+        </is>
+      </c>
+      <c r="E1302" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="F1302" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="G1302" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="H1302" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="I1302" t="n">
+        <v>1178300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5259.xlsx
+++ b/data/5259.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1302"/>
+  <dimension ref="A1:I1303"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45958,6 +45958,41 @@
         <v>1178300</v>
       </c>
     </row>
+    <row r="1303">
+      <c r="A1303" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B1303" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C1303" t="inlineStr">
+        <is>
+          <t>5259</t>
+        </is>
+      </c>
+      <c r="D1303" t="inlineStr">
+        <is>
+          <t>EATECH</t>
+        </is>
+      </c>
+      <c r="E1303" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="F1303" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="G1303" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="H1303" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="I1303" t="n">
+        <v>885300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5259.xlsx
+++ b/data/5259.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1303"/>
+  <dimension ref="A1:I1304"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45993,6 +45993,41 @@
         <v>885300</v>
       </c>
     </row>
+    <row r="1304">
+      <c r="A1304" t="n">
+        <v>1586131200</v>
+      </c>
+      <c r="B1304" t="inlineStr">
+        <is>
+          <t>2020-04-06</t>
+        </is>
+      </c>
+      <c r="C1304" t="inlineStr">
+        <is>
+          <t>5259</t>
+        </is>
+      </c>
+      <c r="D1304" t="inlineStr">
+        <is>
+          <t>EATECH</t>
+        </is>
+      </c>
+      <c r="E1304" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="F1304" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="G1304" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="H1304" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="I1304" t="n">
+        <v>546300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5259.xlsx
+++ b/data/5259.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1304"/>
+  <dimension ref="A1:I1305"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46028,6 +46028,41 @@
         <v>546300</v>
       </c>
     </row>
+    <row r="1305">
+      <c r="A1305" t="n">
+        <v>1586217600</v>
+      </c>
+      <c r="B1305" t="inlineStr">
+        <is>
+          <t>2020-04-07</t>
+        </is>
+      </c>
+      <c r="C1305" t="inlineStr">
+        <is>
+          <t>5259</t>
+        </is>
+      </c>
+      <c r="D1305" t="inlineStr">
+        <is>
+          <t>EATECH</t>
+        </is>
+      </c>
+      <c r="E1305" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="F1305" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G1305" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="H1305" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="I1305" t="n">
+        <v>1718500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5259.xlsx
+++ b/data/5259.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1305"/>
+  <dimension ref="A1:I1306"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46063,6 +46063,41 @@
         <v>1718500</v>
       </c>
     </row>
+    <row r="1306">
+      <c r="A1306" t="n">
+        <v>1586304000</v>
+      </c>
+      <c r="B1306" t="inlineStr">
+        <is>
+          <t>2020-04-08</t>
+        </is>
+      </c>
+      <c r="C1306" t="inlineStr">
+        <is>
+          <t>5259</t>
+        </is>
+      </c>
+      <c r="D1306" t="inlineStr">
+        <is>
+          <t>EATECH</t>
+        </is>
+      </c>
+      <c r="E1306" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="F1306" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="G1306" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="H1306" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="I1306" t="n">
+        <v>798400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5259.xlsx
+++ b/data/5259.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1306"/>
+  <dimension ref="A1:I1307"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46098,6 +46098,41 @@
         <v>798400</v>
       </c>
     </row>
+    <row r="1307">
+      <c r="A1307" t="n">
+        <v>1586390400</v>
+      </c>
+      <c r="B1307" t="inlineStr">
+        <is>
+          <t>2020-04-09</t>
+        </is>
+      </c>
+      <c r="C1307" t="inlineStr">
+        <is>
+          <t>5259</t>
+        </is>
+      </c>
+      <c r="D1307" t="inlineStr">
+        <is>
+          <t>EATECH</t>
+        </is>
+      </c>
+      <c r="E1307" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="F1307" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="G1307" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="H1307" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="I1307" t="n">
+        <v>614500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5259.xlsx
+++ b/data/5259.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1307"/>
+  <dimension ref="A1:I1308"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46133,6 +46133,41 @@
         <v>614500</v>
       </c>
     </row>
+    <row r="1308">
+      <c r="A1308" t="n">
+        <v>1586476800</v>
+      </c>
+      <c r="B1308" t="inlineStr">
+        <is>
+          <t>2020-04-10</t>
+        </is>
+      </c>
+      <c r="C1308" t="inlineStr">
+        <is>
+          <t>5259</t>
+        </is>
+      </c>
+      <c r="D1308" t="inlineStr">
+        <is>
+          <t>EATECH</t>
+        </is>
+      </c>
+      <c r="E1308" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="F1308" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="G1308" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="H1308" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="I1308" t="n">
+        <v>693600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5259.xlsx
+++ b/data/5259.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1308"/>
+  <dimension ref="A1:I1309"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46168,6 +46168,41 @@
         <v>693600</v>
       </c>
     </row>
+    <row r="1309">
+      <c r="A1309" t="n">
+        <v>1586736000</v>
+      </c>
+      <c r="B1309" t="inlineStr">
+        <is>
+          <t>2020-04-13</t>
+        </is>
+      </c>
+      <c r="C1309" t="inlineStr">
+        <is>
+          <t>5259</t>
+        </is>
+      </c>
+      <c r="D1309" t="inlineStr">
+        <is>
+          <t>EATECH</t>
+        </is>
+      </c>
+      <c r="E1309" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="F1309" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="G1309" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="H1309" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="I1309" t="n">
+        <v>205600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5259.xlsx
+++ b/data/5259.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1309"/>
+  <dimension ref="A1:I1310"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46203,6 +46203,41 @@
         <v>205600</v>
       </c>
     </row>
+    <row r="1310">
+      <c r="A1310" t="n">
+        <v>1586822400</v>
+      </c>
+      <c r="B1310" t="inlineStr">
+        <is>
+          <t>2020-04-14</t>
+        </is>
+      </c>
+      <c r="C1310" t="inlineStr">
+        <is>
+          <t>5259</t>
+        </is>
+      </c>
+      <c r="D1310" t="inlineStr">
+        <is>
+          <t>EATECH</t>
+        </is>
+      </c>
+      <c r="E1310" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="F1310" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="G1310" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="H1310" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="I1310" t="n">
+        <v>188000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5259.xlsx
+++ b/data/5259.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1310"/>
+  <dimension ref="A1:I1311"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46238,6 +46238,41 @@
         <v>188000</v>
       </c>
     </row>
+    <row r="1311">
+      <c r="A1311" t="n">
+        <v>1586908800</v>
+      </c>
+      <c r="B1311" t="inlineStr">
+        <is>
+          <t>2020-04-15</t>
+        </is>
+      </c>
+      <c r="C1311" t="inlineStr">
+        <is>
+          <t>5259</t>
+        </is>
+      </c>
+      <c r="D1311" t="inlineStr">
+        <is>
+          <t>EATECH</t>
+        </is>
+      </c>
+      <c r="E1311" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="F1311" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="G1311" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="H1311" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="I1311" t="n">
+        <v>477500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5259.xlsx
+++ b/data/5259.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1311"/>
+  <dimension ref="A1:I1312"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46273,6 +46273,41 @@
         <v>477500</v>
       </c>
     </row>
+    <row r="1312">
+      <c r="A1312" t="n">
+        <v>1586995200</v>
+      </c>
+      <c r="B1312" t="inlineStr">
+        <is>
+          <t>2020-04-16</t>
+        </is>
+      </c>
+      <c r="C1312" t="inlineStr">
+        <is>
+          <t>5259</t>
+        </is>
+      </c>
+      <c r="D1312" t="inlineStr">
+        <is>
+          <t>EATECH</t>
+        </is>
+      </c>
+      <c r="E1312" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="F1312" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="G1312" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="H1312" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="I1312" t="n">
+        <v>161400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5259.xlsx
+++ b/data/5259.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1312"/>
+  <dimension ref="A1:I1313"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46308,6 +46308,41 @@
         <v>161400</v>
       </c>
     </row>
+    <row r="1313">
+      <c r="A1313" t="n">
+        <v>1587081600</v>
+      </c>
+      <c r="B1313" t="inlineStr">
+        <is>
+          <t>2020-04-17</t>
+        </is>
+      </c>
+      <c r="C1313" t="inlineStr">
+        <is>
+          <t>5259</t>
+        </is>
+      </c>
+      <c r="D1313" t="inlineStr">
+        <is>
+          <t>EATECH</t>
+        </is>
+      </c>
+      <c r="E1313" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="F1313" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="G1313" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="H1313" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="I1313" t="n">
+        <v>468800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5259.xlsx
+++ b/data/5259.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1313"/>
+  <dimension ref="A1:I1315"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46343,6 +46343,76 @@
         <v>468800</v>
       </c>
     </row>
+    <row r="1314">
+      <c r="A1314" t="n">
+        <v>1587340800</v>
+      </c>
+      <c r="B1314" t="inlineStr">
+        <is>
+          <t>2020-04-20</t>
+        </is>
+      </c>
+      <c r="C1314" t="inlineStr">
+        <is>
+          <t>5259</t>
+        </is>
+      </c>
+      <c r="D1314" t="inlineStr">
+        <is>
+          <t>EATECH</t>
+        </is>
+      </c>
+      <c r="E1314" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="F1314" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="G1314" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="H1314" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="I1314" t="n">
+        <v>319400</v>
+      </c>
+    </row>
+    <row r="1315">
+      <c r="A1315" t="n">
+        <v>1587427200</v>
+      </c>
+      <c r="B1315" t="inlineStr">
+        <is>
+          <t>2020-04-21</t>
+        </is>
+      </c>
+      <c r="C1315" t="inlineStr">
+        <is>
+          <t>5259</t>
+        </is>
+      </c>
+      <c r="D1315" t="inlineStr">
+        <is>
+          <t>EATECH</t>
+        </is>
+      </c>
+      <c r="E1315" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="F1315" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="G1315" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="H1315" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="I1315" t="n">
+        <v>259600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5259.xlsx
+++ b/data/5259.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1315"/>
+  <dimension ref="A1:I1316"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46413,6 +46413,41 @@
         <v>259600</v>
       </c>
     </row>
+    <row r="1316">
+      <c r="A1316" t="n">
+        <v>1587513600</v>
+      </c>
+      <c r="B1316" t="inlineStr">
+        <is>
+          <t>2020-04-22</t>
+        </is>
+      </c>
+      <c r="C1316" t="inlineStr">
+        <is>
+          <t>5259</t>
+        </is>
+      </c>
+      <c r="D1316" t="inlineStr">
+        <is>
+          <t>EATECH</t>
+        </is>
+      </c>
+      <c r="E1316" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="F1316" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="G1316" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="H1316" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="I1316" t="n">
+        <v>188200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5259.xlsx
+++ b/data/5259.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1316"/>
+  <dimension ref="A1:I1319"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46448,6 +46448,111 @@
         <v>188200</v>
       </c>
     </row>
+    <row r="1317">
+      <c r="A1317" t="n">
+        <v>1587600000</v>
+      </c>
+      <c r="B1317" t="inlineStr">
+        <is>
+          <t>2020-04-23</t>
+        </is>
+      </c>
+      <c r="C1317" t="inlineStr">
+        <is>
+          <t>5259</t>
+        </is>
+      </c>
+      <c r="D1317" t="inlineStr">
+        <is>
+          <t>EATECH</t>
+        </is>
+      </c>
+      <c r="E1317" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="F1317" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="G1317" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="H1317" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="I1317" t="n">
+        <v>149000</v>
+      </c>
+    </row>
+    <row r="1318">
+      <c r="A1318" t="n">
+        <v>1587686400</v>
+      </c>
+      <c r="B1318" t="inlineStr">
+        <is>
+          <t>2020-04-24</t>
+        </is>
+      </c>
+      <c r="C1318" t="inlineStr">
+        <is>
+          <t>5259</t>
+        </is>
+      </c>
+      <c r="D1318" t="inlineStr">
+        <is>
+          <t>EATECH</t>
+        </is>
+      </c>
+      <c r="E1318" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="F1318" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="G1318" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="H1318" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="I1318" t="n">
+        <v>321400</v>
+      </c>
+    </row>
+    <row r="1319">
+      <c r="A1319" t="n">
+        <v>1587945600</v>
+      </c>
+      <c r="B1319" t="inlineStr">
+        <is>
+          <t>2020-04-27</t>
+        </is>
+      </c>
+      <c r="C1319" t="inlineStr">
+        <is>
+          <t>5259</t>
+        </is>
+      </c>
+      <c r="D1319" t="inlineStr">
+        <is>
+          <t>EATECH</t>
+        </is>
+      </c>
+      <c r="E1319" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="F1319" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="G1319" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="H1319" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="I1319" t="n">
+        <v>117500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5259.xlsx
+++ b/data/5259.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1319"/>
+  <dimension ref="A1:I1320"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46553,6 +46553,41 @@
         <v>117500</v>
       </c>
     </row>
+    <row r="1320">
+      <c r="A1320" t="n">
+        <v>1588032000</v>
+      </c>
+      <c r="B1320" t="inlineStr">
+        <is>
+          <t>2020-04-28</t>
+        </is>
+      </c>
+      <c r="C1320" t="inlineStr">
+        <is>
+          <t>5259</t>
+        </is>
+      </c>
+      <c r="D1320" t="inlineStr">
+        <is>
+          <t>EATECH</t>
+        </is>
+      </c>
+      <c r="E1320" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="F1320" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="G1320" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="H1320" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="I1320" t="n">
+        <v>201800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5259.xlsx
+++ b/data/5259.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1320"/>
+  <dimension ref="A1:I1321"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46588,6 +46588,41 @@
         <v>201800</v>
       </c>
     </row>
+    <row r="1321">
+      <c r="A1321" t="n">
+        <v>1588118400</v>
+      </c>
+      <c r="B1321" t="inlineStr">
+        <is>
+          <t>2020-04-29</t>
+        </is>
+      </c>
+      <c r="C1321" t="inlineStr">
+        <is>
+          <t>5259</t>
+        </is>
+      </c>
+      <c r="D1321" t="inlineStr">
+        <is>
+          <t>EATECH</t>
+        </is>
+      </c>
+      <c r="E1321" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="F1321" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="G1321" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="H1321" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="I1321" t="n">
+        <v>1652500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5259.xlsx
+++ b/data/5259.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1321"/>
+  <dimension ref="A1:I1324"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46623,6 +46623,111 @@
         <v>1652500</v>
       </c>
     </row>
+    <row r="1322">
+      <c r="A1322" t="n">
+        <v>1588204800</v>
+      </c>
+      <c r="B1322" t="inlineStr">
+        <is>
+          <t>2020-04-30</t>
+        </is>
+      </c>
+      <c r="C1322" t="inlineStr">
+        <is>
+          <t>5259</t>
+        </is>
+      </c>
+      <c r="D1322" t="inlineStr">
+        <is>
+          <t>EATECH</t>
+        </is>
+      </c>
+      <c r="E1322" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="F1322" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="G1322" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="H1322" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I1322" t="n">
+        <v>2725400</v>
+      </c>
+    </row>
+    <row r="1323">
+      <c r="A1323" t="n">
+        <v>1588550400</v>
+      </c>
+      <c r="B1323" t="inlineStr">
+        <is>
+          <t>2020-05-04</t>
+        </is>
+      </c>
+      <c r="C1323" t="inlineStr">
+        <is>
+          <t>5259</t>
+        </is>
+      </c>
+      <c r="D1323" t="inlineStr">
+        <is>
+          <t>EATECH</t>
+        </is>
+      </c>
+      <c r="E1323" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F1323" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G1323" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="H1323" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="I1323" t="n">
+        <v>470700</v>
+      </c>
+    </row>
+    <row r="1324">
+      <c r="A1324" t="n">
+        <v>1588636800</v>
+      </c>
+      <c r="B1324" t="inlineStr">
+        <is>
+          <t>2020-05-05</t>
+        </is>
+      </c>
+      <c r="C1324" t="inlineStr">
+        <is>
+          <t>5259</t>
+        </is>
+      </c>
+      <c r="D1324" t="inlineStr">
+        <is>
+          <t>EATECH</t>
+        </is>
+      </c>
+      <c r="E1324" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="F1324" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G1324" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="H1324" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="I1324" t="n">
+        <v>519400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
